--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -441,7 +441,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -449,34 +449,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.56640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="47.52734375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="35.5390625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="27.32421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.7265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.61328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="47.5234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -827,7 +828,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -836,7 +837,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1267,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>77</v>
@@ -1276,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -2222,273 +2223,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3748C6B-FD86-47CE-B87A-ADE7039E7068}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54211169-B965-40EB-9258-16EF03C66685}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8326386D-5690-476C-BDE7-94C65FA036A4}"/>
 </file>
--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -350,6 +356,9 @@
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge1</t>
   </si>
   <si>
+    <t>{evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge1,=,false}</t>
+  </si>
+  <si>
     <t>Foro di appartenenza</t>
   </si>
   <si>
@@ -360,6 +369,9 @@
   </si>
   <si>
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>{evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge2,=,false}</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -466,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -478,6 +490,7 @@
     <col min="4" max="4" width="47.5234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="63.55859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,185 +512,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -699,1525 +742,1756 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -380,34 +380,34 @@
     <t>Dettagli evento</t>
   </si>
   <si>
+    <t>Comprensione coniuge1</t>
+  </si>
+  <si>
+    <t>comprensioneConiuge1</t>
+  </si>
+  <si>
+    <t>Comprensione coniuge2</t>
+  </si>
+  <si>
+    <t>comprensioneConiuge2</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura coniuge 1</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaConiuge1</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura coniuge 2</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScritturaConiuge2</t>
+  </si>
+  <si>
     <t>Presenza interprete</t>
   </si>
   <si>
     <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Comprensione coniuge1</t>
-  </si>
-  <si>
-    <t>comprensioneConiuge1</t>
-  </si>
-  <si>
-    <t>Comprensione coniuge2</t>
-  </si>
-  <si>
-    <t>comprensioneConiuge2</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura coniuge 1</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaConiuge1</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura coniuge 2</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScritturaConiuge2</t>
   </si>
   <si>
     <t>Presenza avvocato Coniuge 1</t>
@@ -2344,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>123</v>
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>106</v>
@@ -2433,10 +2433,10 @@
         <v>130</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>131</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Estratto dell'atto di unione civile</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Atto di manifestazione di volontà di sciogliere l’unione civile</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-octies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Estratto dell'atto di unione civile</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Atto di manifestazione di volontà di sciogliere l’unione civile</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-octies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -743,1755 +746,1755 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -359,7 +359,7 @@
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>{evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge1,=,false}</t>
+    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge1,=,false</t>
   </si>
   <si>
     <t>Foro di appartenenza</t>
@@ -374,7 +374,7 @@
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge2</t>
   </si>
   <si>
-    <t>{evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge2,=,false}</t>
+    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge2,=,false</t>
   </si>
   <si>
     <t>foroAvvocatoConiuge2</t>
@@ -493,7 +493,7 @@
     <col min="4" max="4" width="47.5234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="63.55859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="62.171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -341,6 +341,9 @@
     <t>parteInGiudizioPendente</t>
   </si>
   <si>
+    <t>evento.scioglimentoUnioneCivile.assegnoMantenimento,=,true</t>
+  </si>
+  <si>
     <t>Autorità giudiziale</t>
   </si>
   <si>
@@ -353,6 +356,15 @@
     <t>dataConfermaAccordo</t>
   </si>
   <si>
+    <t>evento.scioglimentoUnioneCivile.assegnoMantenimento,=,false</t>
+  </si>
+  <si>
+    <t>Dati assegno mantenimento/divorzile</t>
+  </si>
+  <si>
+    <t>datiAssegnoMantenimento</t>
+  </si>
+  <si>
     <t>Avvocato Coniuge 1</t>
   </si>
   <si>
@@ -411,6 +423,12 @@
   </si>
   <si>
     <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Assegno Mantentimento/Divorzile</t>
+  </si>
+  <si>
+    <t>assegnoMantenimento</t>
   </si>
   <si>
     <t>Presenza avvocato Coniuge 1</t>
@@ -481,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2149,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
@@ -2157,7 +2175,7 @@
         <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
@@ -2166,13 +2184,13 @@
         <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
@@ -2180,7 +2198,7 @@
         <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2189,174 +2207,174 @@
         <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
@@ -2364,22 +2382,22 @@
         <v>122</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
@@ -2387,22 +2405,22 @@
         <v>122</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84">
@@ -2410,7 +2428,7 @@
         <v>122</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
@@ -2419,30 +2437,30 @@
         <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2453,10 +2471,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2465,7 +2483,7 @@
         <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2476,24 +2494,139 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F87" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -311,22 +317,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Dettaglio accordo</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1097,7 +1103,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>35</v>
@@ -1106,7 +1112,7 @@
         <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1189,7 +1195,7 @@
         <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>35</v>
@@ -1221,7 +1227,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -1244,7 +1250,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1267,7 +1273,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1304,7 +1310,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>35</v>
@@ -1313,7 +1319,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1367,22 +1373,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1390,22 +1396,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1413,22 +1419,22 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1436,22 +1442,22 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1528,22 +1534,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1551,22 +1557,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1574,22 +1580,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1597,22 +1603,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1620,22 +1626,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,22 +1718,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
@@ -1781,22 +1787,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>26</v>
@@ -1804,22 +1810,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -1827,22 +1833,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1876,16 +1882,16 @@
         <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1899,16 +1905,16 @@
         <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,19 +1994,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,22 +2109,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
@@ -2126,19 +2132,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
@@ -2149,364 +2155,364 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F80" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2523,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2546,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2569,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2592,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2609,24 +2615,70 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -113,6 +113,69 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data Evento Unione Civile</t>
+  </si>
+  <si>
+    <t>evento.scioglimentoUnioneCivile</t>
+  </si>
+  <si>
+    <t>dataEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>evento.scioglimentoUnioneCivile.luogoEventoUnioneCivile</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Celebrato da</t>
+  </si>
+  <si>
+    <t>officianteEventoUnioneCivile</t>
+  </si>
+  <si>
     <t>Unito civilmente 1</t>
   </si>
   <si>
@@ -179,9 +242,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -339,9 +399,6 @@
   </si>
   <si>
     <t>Parte in causa in giudizio pendente</t>
-  </si>
-  <si>
-    <t>evento.scioglimentoUnioneCivile</t>
   </si>
   <si>
     <t>parteInGiudizioPendente</t>
@@ -505,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -514,7 +571,7 @@
     <col min="1" max="1" width="18.7265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="54.61328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="47.5234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="53.5390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="62.171875" customWidth="true" bestFit="true"/>
@@ -896,13 +953,13 @@
         <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -916,16 +973,16 @@
         <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -939,16 +996,16 @@
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
@@ -962,19 +1019,19 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>26</v>
@@ -985,16 +1042,16 @@
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -1008,19 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>26</v>
@@ -1031,16 +1088,16 @@
         <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
@@ -1054,7 +1111,7 @@
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
@@ -1063,10 +1120,10 @@
         <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
@@ -1074,19 +1131,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -1097,22 +1154,22 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1120,22 +1177,22 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1143,19 +1200,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
@@ -1166,19 +1223,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
@@ -1189,19 +1246,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
@@ -1212,19 +1269,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
@@ -1235,19 +1292,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -1258,19 +1315,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1281,19 +1338,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
@@ -1304,19 +1361,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1327,19 +1384,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1350,19 +1407,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1373,19 +1430,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1396,22 +1453,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1419,19 +1476,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1442,19 +1499,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -1465,19 +1522,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,22 +1545,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1511,22 +1568,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1534,19 +1591,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1557,22 +1614,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1580,19 +1637,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1603,19 +1660,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>13</v>
@@ -1626,22 +1683,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1649,22 +1706,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1672,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1764,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
@@ -1787,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1810,19 +1867,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>13</v>
@@ -1833,19 +1890,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>13</v>
@@ -1856,19 +1913,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,19 +1959,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1925,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1948,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1971,22 +2028,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1994,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2017,22 +2074,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -2040,22 +2097,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2063,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2143,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,19 +2166,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2132,22 +2189,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2155,22 +2212,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2178,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2201,484 +2258,691 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="2" t="s">
+      <c r="B95" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="172">
   <si>
     <t>Sezione</t>
   </si>
@@ -315,6 +315,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -562,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1660,22 +1684,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1683,22 +1707,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1706,22 +1730,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1729,22 +1753,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1752,22 +1776,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1775,19 +1799,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,22 +1822,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>26</v>
@@ -1821,22 +1845,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -1844,19 +1868,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,22 +1891,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -1890,22 +1914,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1913,22 +1937,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1936,19 +1960,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1959,22 +1983,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -1982,22 +2006,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -2005,19 +2029,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,22 +2052,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -2051,19 +2075,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2074,22 +2098,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -2097,22 +2121,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2120,22 +2144,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2143,19 +2167,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,22 +2190,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
@@ -2189,22 +2213,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2212,19 +2236,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2259,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2258,19 +2282,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2305,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,22 +2328,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2327,19 +2351,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,22 +2374,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -2373,19 +2397,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2396,22 +2420,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2419,22 +2443,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>26</v>
@@ -2442,19 +2466,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2465,217 +2489,217 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
@@ -2684,67 +2708,67 @@
         <v>35</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
@@ -2753,21 +2777,21 @@
         <v>35</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2776,21 +2800,21 @@
         <v>35</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2799,150 +2823,334 @@
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -1207,7 +1207,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -1216,7 +1216,7 @@
         <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1828,7 +1828,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>110</v>
@@ -1837,7 +1837,7 @@
         <v>61</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
   <si>
     <t>Sezione</t>
   </si>
@@ -194,6 +194,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -245,13 +251,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -586,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1207,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>56</v>
@@ -1299,7 +1305,7 @@
         <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>56</v>
@@ -1331,7 +1337,7 @@
         <v>71</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1354,7 +1360,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1377,7 +1383,7 @@
         <v>75</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1388,7 +1394,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -1397,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>13</v>
@@ -1411,10 +1417,10 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>56</v>
@@ -1423,7 +1429,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1506,7 +1512,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
@@ -1538,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1561,7 +1567,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1584,7 +1590,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1621,7 +1627,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>56</v>
@@ -1630,7 +1636,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1690,7 +1696,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>56</v>
@@ -1722,7 +1728,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1745,7 +1751,7 @@
         <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1768,7 +1774,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1776,19 +1782,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
@@ -1799,22 +1805,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1822,19 +1828,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1851,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1874,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1897,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1920,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1937,22 +1943,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1960,19 +1966,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
@@ -2006,22 +2012,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -2029,22 +2035,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -2052,22 +2058,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -2075,19 +2081,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2104,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2144,22 +2150,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2167,19 +2173,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2196,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2213,22 +2219,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2236,22 +2242,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2259,22 +2265,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
@@ -2282,19 +2288,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2311,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2334,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2351,19 +2357,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2380,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
@@ -2400,16 +2406,16 @@
         <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2423,19 +2429,19 @@
         <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2443,19 +2449,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2466,19 +2472,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2489,19 +2495,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2541,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2558,19 +2564,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2610,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2627,22 +2633,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2650,22 +2656,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2673,56 +2679,56 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
@@ -2731,67 +2737,67 @@
         <v>35</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2800,237 +2806,237 @@
         <v>35</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E100" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3070,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3093,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3116,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3133,10 +3139,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3145,12 +3151,58 @@
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -592,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1489,7 +1495,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>56</v>
@@ -1498,7 +1504,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1512,7 +1518,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
@@ -1544,7 +1550,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1567,7 +1573,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1590,7 +1596,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1613,7 +1619,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1650,7 +1656,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>56</v>
@@ -1659,7 +1665,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1719,7 +1725,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>56</v>
@@ -1751,7 +1757,7 @@
         <v>106</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1774,7 +1780,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1797,7 +1803,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>13</v>
@@ -1828,22 +1834,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>26</v>
@@ -1851,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1874,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1897,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1989,22 +1995,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -2012,22 +2018,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -2035,22 +2041,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>13</v>
@@ -2081,22 +2087,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>26</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2150,22 +2156,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2173,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
@@ -2265,22 +2271,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
@@ -2288,22 +2294,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>26</v>
@@ -2311,22 +2317,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2334,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2363,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2380,22 +2386,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -2403,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2426,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>13</v>
@@ -2452,16 +2458,16 @@
         <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2481,19 @@
         <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>26</v>
@@ -2495,19 +2501,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2518,19 +2524,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2564,19 +2570,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2587,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2610,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2633,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2656,22 +2662,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2679,22 +2685,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>26</v>
@@ -2702,22 +2708,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2725,56 +2731,56 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
@@ -2783,67 +2789,67 @@
         <v>35</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2852,237 +2858,237 @@
         <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E102" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3168,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3185,10 +3191,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3197,12 +3203,58 @@
         <v>35</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="178">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -598,7 +604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1527,7 +1533,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1550,7 +1556,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1573,7 +1579,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1596,7 +1602,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1619,7 +1625,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1642,7 +1648,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1679,7 +1685,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>56</v>
@@ -1688,7 +1694,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1748,7 +1754,7 @@
         <v>105</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>56</v>
@@ -1780,7 +1786,7 @@
         <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1803,7 +1809,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1826,7 +1832,7 @@
         <v>112</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1834,19 +1840,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>13</v>
@@ -1857,22 +1863,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -1880,19 +1886,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1903,19 +1909,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1932,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1955,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1995,19 +2001,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,22 +2024,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -2041,22 +2047,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -2064,22 +2070,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -2087,19 +2093,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>13</v>
@@ -2110,22 +2116,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -2133,19 +2139,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,22 +2162,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2179,22 +2185,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2202,19 +2208,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2225,19 +2231,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2254,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2300,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>13</v>
@@ -2317,22 +2323,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2340,22 +2346,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2363,22 +2369,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2386,19 +2392,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,19 +2415,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2432,22 +2438,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2455,19 +2461,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2484,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>13</v>
@@ -2504,16 +2510,16 @@
         <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
         <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
@@ -2547,19 +2553,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2576,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2599,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2622,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2645,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2668,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2691,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,22 +2714,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2731,22 +2737,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>26</v>
@@ -2754,22 +2760,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -2777,56 +2783,56 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2835,67 +2841,67 @@
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2904,237 +2910,237 @@
         <v>35</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E104" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F106" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3151,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,19 +3174,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,19 +3220,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3237,10 +3243,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
@@ -3249,12 +3255,58 @@
         <v>35</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -604,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2812,7 +2818,7 @@
         <v>139</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>119</v>
@@ -2821,7 +2827,7 @@
         <v>140</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -2829,59 +2835,59 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>35</v>
@@ -2890,18 +2896,18 @@
         <v>148</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2910,47 +2916,47 @@
         <v>35</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>35</v>
@@ -2959,18 +2965,18 @@
         <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2979,179 +2985,179 @@
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>164</v>
@@ -3174,13 +3180,13 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>35</v>
@@ -3197,7 +3203,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>168</v>
@@ -3220,16 +3226,16 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>171</v>
@@ -3243,7 +3249,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>172</v>
@@ -3252,7 +3258,7 @@
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>173</v>
@@ -3266,7 +3272,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>174</v>
@@ -3289,7 +3295,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>176</v>
@@ -3307,6 +3313,29 @@
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="180">
   <si>
     <t>Sezione</t>
   </si>
@@ -479,28 +479,28 @@
     <t>Avvocato Coniuge 1</t>
   </si>
   <si>
+    <t>Foro di appartenenza</t>
+  </si>
+  <si>
+    <t>foroAvvocatoConiuge1</t>
+  </si>
+  <si>
+    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge1,=,false</t>
+  </si>
+  <si>
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge1</t>
   </si>
   <si>
-    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge1,=,false</t>
-  </si>
-  <si>
-    <t>Foro di appartenenza</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge1</t>
-  </si>
-  <si>
     <t>Avvocato Coniuge 2</t>
   </si>
   <si>
+    <t>foroAvvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge2,=,false</t>
+  </si>
+  <si>
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge2</t>
-  </si>
-  <si>
-    <t>evento.scioglimentoUnioneCivile.presenzaAvvocatoConiuge2,=,false</t>
-  </si>
-  <si>
-    <t>foroAvvocatoConiuge2</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -610,7 +610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H166"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3022,22 +3022,22 @@
         <v>154</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
@@ -3045,22 +3045,22 @@
         <v>154</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
@@ -3068,274 +3068,1378 @@
         <v>154</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B159" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E166" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="185">
   <si>
     <t>Sezione</t>
   </si>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>evento.scioglimentoUnioneCivile.avvocatoConiuge2</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -610,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -622,7 +637,7 @@
     <col min="4" max="4" width="53.5390625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="62.171875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4264,22 +4279,22 @@
         <v>163</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E159" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160">
@@ -4287,22 +4302,22 @@
         <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="161">
@@ -4310,22 +4325,22 @@
         <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162">
@@ -4333,22 +4348,22 @@
         <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163">
@@ -4356,22 +4371,22 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="164">
@@ -4379,22 +4394,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165">
@@ -4402,22 +4417,22 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166">
@@ -4425,21 +4440,619 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
+      <c r="F189" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
+      <c r="E190" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="189">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -625,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1292,7 +1304,7 @@
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>56</v>
@@ -1315,7 +1327,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>56</v>
@@ -1324,7 +1336,7 @@
         <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -1361,7 +1373,7 @@
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>56</v>
@@ -1384,7 +1396,7 @@
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>56</v>
@@ -1393,7 +1405,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1450,7 +1462,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
@@ -1459,10 +1471,10 @@
         <v>56</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1473,19 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1496,10 +1508,10 @@
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>56</v>
@@ -1508,7 +1520,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1522,7 +1534,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>56</v>
@@ -1531,7 +1543,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1545,7 +1557,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
@@ -1554,7 +1566,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1577,7 +1589,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1715,7 +1727,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1729,7 +1741,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>56</v>
@@ -1738,7 +1750,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1752,7 +1764,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>56</v>
@@ -1761,7 +1773,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1798,7 +1810,7 @@
         <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>56</v>
@@ -1821,7 +1833,7 @@
         <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>56</v>
@@ -1830,7 +1842,7 @@
         <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1884,22 +1896,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -1907,22 +1919,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>26</v>
@@ -1930,22 +1942,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -1953,19 +1965,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1988,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2034,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2045,22 +2057,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -2068,22 +2080,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2114,22 +2126,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>26</v>
@@ -2137,22 +2149,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -2160,22 +2172,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2183,19 +2195,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2218,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
@@ -2229,19 +2241,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2252,19 +2264,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2275,22 +2287,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2298,22 +2310,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
@@ -2321,19 +2333,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>13</v>
@@ -2344,19 +2356,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2379,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -2390,22 +2402,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2413,22 +2425,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -2436,19 +2448,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2459,22 +2471,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2482,22 +2494,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>26</v>
@@ -2505,22 +2517,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>26</v>
@@ -2528,19 +2540,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2551,22 +2563,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
@@ -2574,19 +2586,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2597,22 +2609,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>26</v>
@@ -2620,19 +2632,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2643,22 +2655,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2666,19 +2678,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2701,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2724,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2747,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2781,22 +2793,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>26</v>
@@ -2804,22 +2816,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2827,22 +2839,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>26</v>
@@ -2850,19 +2862,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2873,148 +2885,148 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3023,651 +3035,651 @@
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>61</v>
+        <v>157</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>63</v>
+        <v>160</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3678,10 +3690,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>15</v>
@@ -3690,10 +3702,10 @@
         <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>161</v>
@@ -3701,10 +3713,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>15</v>
@@ -3713,10 +3725,10 @@
         <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>161</v>
@@ -3724,19 +3736,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3759,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3782,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3793,485 +3805,485 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C138" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159">
@@ -4279,22 +4291,22 @@
         <v>163</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="160">
@@ -4302,22 +4314,22 @@
         <v>163</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
@@ -4325,22 +4337,22 @@
         <v>163</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162">
@@ -4348,22 +4360,22 @@
         <v>163</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163">
@@ -4371,22 +4383,22 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164">
@@ -4394,22 +4406,22 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165">
@@ -4417,22 +4429,22 @@
         <v>163</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166">
@@ -4440,619 +4452,849 @@
         <v>163</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E185" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E186" s="2" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E188" s="2" t="s">
-        <v>176</v>
+        <v>98</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E189" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E191" s="2" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="E192" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E200" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F192" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="2" t="s">
+      <c r="F200" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
         <v>26</v>
       </c>
     </row>
